--- a/src/main/resources/menBoohooHoodie.xlsx
+++ b/src/main/resources/menBoohooHoodie.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="133">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="175">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,385 +32,511 @@
     <t>URL</t>
   </si>
   <si>
-    <t>MEN HOODIE</t>
+    <t>men_boohoo_hoodie_1</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm72158_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>ZIP UP TIE DYE HOODIE</t>
+  </si>
+  <si>
+    <t>$37.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/zip-up-tie-dye-hoodie/BMM72158.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_2</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm72153_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED TIE DYE HOODIE</t>
+  </si>
+  <si>
+    <t>$27.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-tie-dye-hoodie-/BMM72153.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_3</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm70858_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>1/4 ZIP OVERSIZED TOWELLING APPLIQUE HOODIE</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/1%2F4-zip-oversized-towelling-applique-hoodie/BMM70858.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_4</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68698_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS OVERDYED DENIM HOODIE</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-overdyed-denim-hoodie/BMM68698.html?color=508</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm59061_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED GRAFFITI PAINT SPLATTER HOODIE</t>
+  </si>
+  <si>
+    <t>$46.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-graffiti-paint-splatter-hoodie/BMM59061.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68032_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY RAW SEAM WASHED HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-raw-seam-washed-hoodie/BMM68032.html?color=165</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm76420_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED SPIDERMAN MARVEL WASH LICENSE HOODIE</t>
+  </si>
+  <si>
+    <t>$66.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-spiderman-marvel-wash-license-hoodie/BMM76420.html?color=115</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_8</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68040_violet_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED WASHED QUILTED HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-washed-quilted-hoodie/BMM68040.html?color=172</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm59945_purple_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL OVERSIZED WASHED CORD HOODIE</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-oversized-washed-cord-hoodie/BMM59945.html?color=156</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68961_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>EDITION OVERSIZED HEAVYWEIGHT RIBBED HOODIE</t>
+  </si>
+  <si>
+    <t>$47.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/edition-oversized-heavyweight-ribbed-hoodie/BMM68961.html?color=165</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm70477_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY BORG APPLIQUE HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-borg-applique-hoodie/BMM70477.html?color=157</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_12</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74922_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED NIRVANA BAND LICENSE HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-nirvana-band-license-hoodie/BMM74922.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm30931_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED WASHED GRAPHIC ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>$58.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-washed-graphic-zip-through-hoodie/BMM30931.html?color=115</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68671_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL OVERDYED DENIM BOXY FIT ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-overdyed-denim-boxy-fit-zip-through-hoodie/BMM68671.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm80175_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED HEAVYWEIGHT OVERDYE BM ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-heavyweight-overdye-bm--zip-through-hoodie/BMM80175.html?color=109</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75699_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS BASIC OVER THE HEAD HOODIE IN GREY MARL</t>
+  </si>
+  <si>
+    <t>$32.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-basic-over-the-head-hoodie-in-grey-marl/BMM75699.html?color=265</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74252_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY BOUCLE BORG HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-boucle-borg-hoodie/BMM74252.html?color=106</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75961_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED WORLDWIDE GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-worldwide-graphic-hoodie/BMM75961.html?color=161</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm58741_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED HEAVYWEIGHT LOOPBACK GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-heavyweight-loopback-graphic-hoodie/BMM58741.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm67668_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED HEAVYWEIGHT ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-heavyweight-zip-through-hoodie/BMM67668.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm32936_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAN ACTIVE TRAINING DEPT BOXY HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-active-training-dept-boxy-hoodie/BMM32936.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_22</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm76422_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED FALL OUT BOY WASH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-fall-out-boy-wash-hoodie/BMM76422.html?color=115</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm71338_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED PARADISE HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-paradise-hoodie/BMM71338.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75048_dusty%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAN BOXY OVER THE HEAD BASIC HOODIE</t>
+  </si>
+  <si>
+    <t>$20.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-boxy-over-the-head-basic-hoodie/BMM75048.html?color=679</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm66858_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAN ACTIVE FLEECE ZIP THRU HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-active-fleece-zip-thru-hoodie/BMM66858.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_26</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74829_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BASIC ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/basic-zip-through-hoodie/BMM74829.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69680_pale%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED LOOPBACK RIBBED APPLIQUE HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-loopback-ribbed-applique-hoodie/BMM69680.html?color=423</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_28</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm59138_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BEASTIE BOYS LICENSE HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-beastie-boys-license-hoodie/BMM59138.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm78496_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY HOMME PAINT SPLAT HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-homme-paint-splat-hoodie/BMM78496.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_30</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm76056_olive_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS RAGLAN COLOUR BLOCK HOODIE IN OLIVE</t>
+  </si>
+  <si>
+    <t>$63.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-raglan-colour-block-hoodie-in-olive/BMM76056.html?color=151</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65217_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED SCENIC GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-scenic-graphic-hoodie/BMM65217.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_32</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75103_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED DOG GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-dog-graphic-hoodie-/BMM75103.html?color=265</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_33</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm71855_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OFFICIAL BOXY FIT ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/official-boxy-fit-zip-through-hoodie/BMM71855.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_34</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm70003_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>OFCL PSYCHADELIC GRAPHIC HOODIE</t>
   </si>
   <si>
-    <t>$30.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/ofcl-psychadelic-graphic-hoodie/BMM70003.html?color=265</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68032_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY RAW SEAM WASHED HOODIE</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-raw-seam-washed-hoodie/BMM68032.html?color=165</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm61479_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL OVERSIZED BONDED SCUBA HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-oversized--bonded-scuba-hoodie/BMM61479.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm30931_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED WASHED GRAPHIC ZIP THROUGH HOODIE</t>
-  </si>
-  <si>
-    <t>$58.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-washed-graphic-zip-through-hoodie/BMM30931.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm59061_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED GRAFFITI PAINT SPLATTER HOODIE</t>
-  </si>
-  <si>
-    <t>$46.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-graffiti-paint-splatter-hoodie/BMM59061.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm78496_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY HOMME PAINT SPLAT HOODIE</t>
-  </si>
-  <si>
-    <t>$40.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-homme-paint-splat-hoodie/BMM78496.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm70858_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>1/4 ZIP OVERSIZED TOWELLING APPLIQUE HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/1%2F4-zip-oversized-towelling-applique-hoodie/BMM70858.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm70477_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY BORG APPLIQUE HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-borg-applique-hoodie/BMM70477.html?color=157</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76207_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY SKULL LINE DRAWING HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-skull-line-drawing-hoodie/BMM76207.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm78750_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL OVER THE HEAD SCUBA HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-over-the-head-scuba-hoodie/BMM78750.html?color=167</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm78779_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS OVER THE HEAD SCUBA HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-over-the-head-scuba-hoodie/BMM78779.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74984_pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY OVER THE HEAD HOODIE</t>
-  </si>
-  <si>
-    <t>$32.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-over-the-head-hoodie/BMM74984.html?color=155</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm73591_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED OTTOMAN HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-ottoman-hoodie/BMM73591.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68040_violet_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED WASHED QUILTED HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-washed-quilted-hoodie/BMM68040.html?color=172</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75048_dusty%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAN BOXY OVER THE HEAD BASIC HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-boxy-over-the-head-basic-hoodie/BMM75048.html?color=679</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm32936_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAN ACTIVE TRAINING DEPT BOXY HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-active-training-dept-boxy-hoodie/BMM32936.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm59135_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED MARY J BLIGE LICENSE HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-mary-j-blige-license-hoodie/BMM59135.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74842_multi_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>2 PACK BASIC OVER THE HEAD HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/2-pack-basic-over-the-head-hoodie/BMM74842.html?color=144</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65217_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED SCENIC GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>$63.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-scenic-graphic-hoodie/BMM65217.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm80175_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED HEAVYWEIGHT OVERDYE BM ZIP THROUGH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-heavyweight-overdye-bm--zip-through-hoodie/BMM80175.html?color=109</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm73253_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED WASHED GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-washed-graphic-hoodie/BMM73253.html?color=165</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76056_olive_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS RAGLAN COLOUR BLOCK HOODIE IN OLIVE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-raglan-colour-block-hoodie-in-olive/BMM76056.html?color=151</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm63648_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BLEACH TIE DYE GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-bleach-tie-dye-graphic-hoodie/BMM63648.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm61485_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAN OVERSIZED BOXY SCUBA HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-oversized-boxy-scuba-hoodie/BMM61485.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71855_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OFFICIAL BOXY FIT ZIP THROUGH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/official-boxy-fit-zip-through-hoodie/BMM71855.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm67668_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED HEAVYWEIGHT ZIP THROUGH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-heavyweight-zip-through-hoodie/BMM67668.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm73755_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY BONDED SCUBA HOODIE</t>
-  </si>
-  <si>
-    <t>$66.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-bonded-scuba-hoodie/BMM73755.html?color=124</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76422_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED FALL OUT BOY WASH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-fall-out-boy-wash-hoodie/BMM76422.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75696_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL BASIC ZIP THROUGH HOODIE IN GREY MARL</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-basic-zip-through-hoodie-in-grey-marl/BMM75696.html?color=265</t>
+    <t>men_boohoo_hoodie_35</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75643_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL PARIS GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-paris-graphic-hoodie/BMM75643.html?color=161</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_36</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm22509_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BLEACH TIE DYE SKULL GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-bleach-tie-dye-skull-graphic-hoodie/BMM22509.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_37</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75757_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL OVERSIZED BOXY SKULL LINE DRAWING HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-oversized-boxy-skull-line-drawing-hoodie/BMM75757.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_38</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm33524_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED RICK &amp; MORTY LICENSE HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-rick-morty-license-hoodie/BMM33524.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_39</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68719_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>PLUS OVERDYED DENIM HOODIE</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/plus-overdyed-denim-hoodie/BMM68719.html?color=803</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm33524_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED RICK &amp; MORTY LICENSE HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-rick-morty-license-hoodie/BMM33524.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm79104_purple_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED SUN BLEACHED 13 ZIP THRU HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-sun-bleached-13-zip-thru-hoodie/BMM79104.html?color=156</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75757_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL OVERSIZED BOXY SKULL LINE DRAWING HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-oversized-boxy-skull-line-drawing-hoodie/BMM75757.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm52911_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY ZIP THROUGH GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-zip-through-graphic-hoodie/BMM52911.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74723_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASIC OVER THE HEAD HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basic-over-the-head-hoodie/BMM74723.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm73152_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAN ACTIVE GYM BOXY FIT HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-active-gym-boxy-fit-hoodie/BMM73152.html?color=265</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm59556_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>ACTIVE TRAINING DEPT OVERSIZED BOXY HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/active-training-dept-oversized-boxy-hoodie/BMM59556.html?color=508</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm80176_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED HEAVYWEIGHT MULTI PRINT ZIP THROUGH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-heavyweight-multi-print-zip-through-hoodie/BMM80176.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71750_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAN OVERSIZED BOXY ACID WASH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-oversized-boxy-acid-wash-hoodie/BMM71750.html?color=115</t>
   </si>
 </sst>
 </file>
@@ -503,762 +629,762 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>108</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>129</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menBoohooHoodie.xlsx
+++ b/src/main/resources/menBoohooHoodie.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="173">
   <si>
     <t>Id</t>
   </si>
@@ -206,6 +206,120 @@
     <t>men_boohoo_hoodie_13</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68671_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL OVERDYED DENIM BOXY FIT ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-overdyed-denim-boxy-fit-zip-through-hoodie/BMM68671.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm80175_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED HEAVYWEIGHT OVERDYE BM ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-heavyweight-overdye-bm--zip-through-hoodie/BMM80175.html?color=109</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75699_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS BASIC OVER THE HEAD HOODIE IN GREY MARL</t>
+  </si>
+  <si>
+    <t>$32.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-basic-over-the-head-hoodie-in-grey-marl/BMM75699.html?color=265</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74252_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY BOUCLE BORG HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-boucle-borg-hoodie/BMM74252.html?color=106</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75961_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED WORLDWIDE GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-worldwide-graphic-hoodie/BMM75961.html?color=161</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm58741_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED HEAVYWEIGHT LOOPBACK GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-heavyweight-loopback-graphic-hoodie/BMM58741.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm67668_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED HEAVYWEIGHT ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-heavyweight-zip-through-hoodie/BMM67668.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm32936_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MAN ACTIVE TRAINING DEPT BOXY HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/man-active-training-dept-boxy-hoodie/BMM32936.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm76422_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED FALL OUT BOY WASH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-fall-out-boy-wash-hoodie/BMM76422.html?color=115</t>
+  </si>
+  <si>
+    <t>men_boohoo_hoodie_22</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/bmm30931_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
@@ -218,120 +332,6 @@
     <t>https://ca.boohoo.com/oversized-washed-graphic-zip-through-hoodie/BMM30931.html?color=115</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_14</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68671_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL OVERDYED DENIM BOXY FIT ZIP THROUGH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-overdyed-denim-boxy-fit-zip-through-hoodie/BMM68671.html?color=209</t>
-  </si>
-  <si>
-    <t>men_boohoo_hoodie_15</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm80175_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED HEAVYWEIGHT OVERDYE BM ZIP THROUGH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-heavyweight-overdye-bm--zip-through-hoodie/BMM80175.html?color=109</t>
-  </si>
-  <si>
-    <t>men_boohoo_hoodie_16</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75699_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS BASIC OVER THE HEAD HOODIE IN GREY MARL</t>
-  </si>
-  <si>
-    <t>$32.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-basic-over-the-head-hoodie-in-grey-marl/BMM75699.html?color=265</t>
-  </si>
-  <si>
-    <t>men_boohoo_hoodie_17</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74252_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY BOUCLE BORG HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-boucle-borg-hoodie/BMM74252.html?color=106</t>
-  </si>
-  <si>
-    <t>men_boohoo_hoodie_18</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75961_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED WORLDWIDE GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>$30.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-worldwide-graphic-hoodie/BMM75961.html?color=161</t>
-  </si>
-  <si>
-    <t>men_boohoo_hoodie_19</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm58741_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED HEAVYWEIGHT LOOPBACK GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-heavyweight-loopback-graphic-hoodie/BMM58741.html?color=105</t>
-  </si>
-  <si>
-    <t>men_boohoo_hoodie_20</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm67668_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED HEAVYWEIGHT ZIP THROUGH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-heavyweight-zip-through-hoodie/BMM67668.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_hoodie_21</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm32936_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAN ACTIVE TRAINING DEPT BOXY HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-active-training-dept-boxy-hoodie/BMM32936.html?color=105</t>
-  </si>
-  <si>
-    <t>men_boohoo_hoodie_22</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76422_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED FALL OUT BOY WASH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-fall-out-boy-wash-hoodie/BMM76422.html?color=115</t>
-  </si>
-  <si>
     <t>men_boohoo_hoodie_23</t>
   </si>
   <si>
@@ -353,190 +353,184 @@
     <t>MAN BOXY OVER THE HEAD BASIC HOODIE</t>
   </si>
   <si>
-    <t>$20.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/man-boxy-over-the-head-basic-hoodie/BMM75048.html?color=679</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_25</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm66858_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MAN ACTIVE FLEECE ZIP THRU HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/man-active-fleece-zip-thru-hoodie/BMM66858.html</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm74829_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BASIC ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/basic-zip-through-hoodie/BMM74829.html?color=105</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_26</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74829_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASIC ZIP THROUGH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basic-zip-through-hoodie/BMM74829.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm69680_pale%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED LOOPBACK RIBBED APPLIQUE HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-loopback-ribbed-applique-hoodie/BMM69680.html?color=423</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_27</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69680_pale%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED LOOPBACK RIBBED APPLIQUE HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-loopback-ribbed-applique-hoodie/BMM69680.html?color=423</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm59138_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BEASTIE BOYS LICENSE HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-beastie-boys-license-hoodie/BMM59138.html</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_28</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm59138_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BEASTIE BOYS LICENSE HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-beastie-boys-license-hoodie/BMM59138.html</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm78496_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY HOMME PAINT SPLAT HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-homme-paint-splat-hoodie/BMM78496.html?color=105</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_29</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm78496_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY HOMME PAINT SPLAT HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-homme-paint-splat-hoodie/BMM78496.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm76056_olive_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS RAGLAN COLOUR BLOCK HOODIE IN OLIVE</t>
+  </si>
+  <si>
+    <t>$63.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-raglan-colour-block-hoodie-in-olive/BMM76056.html?color=151</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_30</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76056_olive_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS RAGLAN COLOUR BLOCK HOODIE IN OLIVE</t>
-  </si>
-  <si>
-    <t>$63.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-raglan-colour-block-hoodie-in-olive/BMM76056.html?color=151</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm65217_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED SCENIC GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-scenic-graphic-hoodie/BMM65217.html?color=131</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_31</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65217_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED SCENIC GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-scenic-graphic-hoodie/BMM65217.html?color=131</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm75103_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED DOG GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-dog-graphic-hoodie-/BMM75103.html?color=265</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_32</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75103_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED DOG GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-dog-graphic-hoodie-/BMM75103.html?color=265</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm71855_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OFFICIAL BOXY FIT ZIP THROUGH HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/official-boxy-fit-zip-through-hoodie/BMM71855.html</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_33</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71855_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OFFICIAL BOXY FIT ZIP THROUGH HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/official-boxy-fit-zip-through-hoodie/BMM71855.html</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm70003_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OFCL PSYCHADELIC GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/ofcl-psychadelic-graphic-hoodie/BMM70003.html?color=265</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_34</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm70003_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OFCL PSYCHADELIC GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/ofcl-psychadelic-graphic-hoodie/BMM70003.html?color=265</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm75643_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL PARIS GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-paris-graphic-hoodie/BMM75643.html?color=161</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_35</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75643_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL PARIS GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-paris-graphic-hoodie/BMM75643.html?color=161</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm22509_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BLEACH TIE DYE SKULL GRAPHIC HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-bleach-tie-dye-skull-graphic-hoodie/BMM22509.html?color=131</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_36</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm22509_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BLEACH TIE DYE SKULL GRAPHIC HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-bleach-tie-dye-skull-graphic-hoodie/BMM22509.html?color=131</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm75757_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL OVERSIZED BOXY SKULL LINE DRAWING HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-oversized-boxy-skull-line-drawing-hoodie/BMM75757.html?color=105</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_37</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75757_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL OVERSIZED BOXY SKULL LINE DRAWING HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-oversized-boxy-skull-line-drawing-hoodie/BMM75757.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm33524_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED RICK &amp; MORTY LICENSE HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-rick-morty-license-hoodie/BMM33524.html?color=105</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_38</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm33524_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED RICK &amp; MORTY LICENSE HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-rick-morty-license-hoodie/BMM33524.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm68719_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-overdyed-denim-hoodie/BMM68719.html?color=803</t>
   </si>
   <si>
     <t>men_boohoo_hoodie_39</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68719_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-overdyed-denim-hoodie/BMM68719.html?color=803</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm70481_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-borg-applique-hoodie/BMM70481.html?color=124</t>
   </si>
 </sst>
 </file>
@@ -861,47 +855,47 @@
         <v>65</v>
       </c>
       <c r="E14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>66</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="C15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>69</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="C16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="E16" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>75</v>
@@ -921,27 +915,27 @@
         <v>78</v>
       </c>
       <c r="E17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>79</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="C18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="C18" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s" s="0">
+      <c r="E18" t="s" s="0">
         <v>83</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>20</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>84</v>
@@ -961,87 +955,87 @@
         <v>87</v>
       </c>
       <c r="E19" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>88</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="C20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="C21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s" s="0">
+      <c r="E21" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="C22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s" s="0">
+      <c r="E22" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="C23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="C23" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s" s="0">
+      <c r="E23" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>39</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>105</v>
@@ -1061,7 +1055,7 @@
         <v>108</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s" s="0">
         <v>109</v>
@@ -1081,107 +1075,107 @@
         <v>112</v>
       </c>
       <c r="E25" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="C26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s" s="0">
+      <c r="E26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s" s="0">
         <v>117</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="C27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="C27" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s" s="0">
+      <c r="E27" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>121</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="C28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s" s="0">
+      <c r="E28" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s" s="0">
         <v>125</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="C29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>128</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>129</v>
       </c>
       <c r="E29" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="C30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s" s="0">
+      <c r="E30" t="s" s="0">
         <v>133</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>134</v>
@@ -1201,190 +1195,190 @@
         <v>137</v>
       </c>
       <c r="E31" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s" s="0">
         <v>138</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="C32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="C32" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s" s="0">
+      <c r="E32" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s" s="0">
         <v>142</v>
-      </c>
-      <c r="E32" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="F32" t="s" s="0">
-        <v>143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="C33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="C33" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s" s="0">
+      <c r="E33" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s" s="0">
         <v>146</v>
-      </c>
-      <c r="E33" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F33" t="s" s="0">
-        <v>147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="C34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="C34" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s" s="0">
+      <c r="E34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>150</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="C35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="C35" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s" s="0">
+      <c r="E35" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s" s="0">
         <v>154</v>
-      </c>
-      <c r="E35" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="C36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="C36" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s" s="0">
+      <c r="E36" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s" s="0">
         <v>158</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>159</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="C37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>161</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>162</v>
       </c>
       <c r="E37" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="C38" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s" s="0">
         <v>165</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>166</v>
       </c>
       <c r="E38" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>169</v>
-      </c>
       <c r="C39" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s" s="0">
         <v>25</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menBoohooHoodie.xlsx
+++ b/src/main/resources/menBoohooHoodie.xlsx
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_1</t>
+    <t>men_boohoohoodie_1</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm72158_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -50,7 +50,7 @@
     <t>https://ca.boohoo.com/zip-up-tie-dye-hoodie/BMM72158.html</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_2</t>
+    <t>men_boohoohoodie_2</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm72153_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -65,7 +65,7 @@
     <t>https://ca.boohoo.com/oversized-tie-dye-hoodie-/BMM72153.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_3</t>
+    <t>men_boohoohoodie_3</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm70858_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -80,7 +80,7 @@
     <t>https://ca.boohoo.com/1%2F4-zip-oversized-towelling-applique-hoodie/BMM70858.html</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_4</t>
+    <t>men_boohoohoodie_4</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68698_light%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -95,7 +95,7 @@
     <t>https://ca.boohoo.com/plus-overdyed-denim-hoodie/BMM68698.html?color=508</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_5</t>
+    <t>men_boohoohoodie_5</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm59061_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -110,7 +110,7 @@
     <t>https://ca.boohoo.com/oversized-graffiti-paint-splatter-hoodie/BMM59061.html</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_6</t>
+    <t>men_boohoohoodie_6</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68032_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -122,7 +122,7 @@
     <t>https://ca.boohoo.com/oversized-boxy-raw-seam-washed-hoodie/BMM68032.html?color=165</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_7</t>
+    <t>men_boohoohoodie_7</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm76420_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -137,7 +137,7 @@
     <t>https://ca.boohoo.com/oversized-spiderman-marvel-wash-license-hoodie/BMM76420.html?color=115</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_8</t>
+    <t>men_boohoohoodie_8</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68040_violet_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -149,7 +149,7 @@
     <t>https://ca.boohoo.com/oversized-washed-quilted-hoodie/BMM68040.html?color=172</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_9</t>
+    <t>men_boohoohoodie_9</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm59945_purple_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -164,7 +164,7 @@
     <t>https://ca.boohoo.com/tall-oversized-washed-cord-hoodie/BMM59945.html?color=156</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_10</t>
+    <t>men_boohoohoodie_10</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68961_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -179,7 +179,7 @@
     <t>https://ca.boohoo.com/edition-oversized-heavyweight-ribbed-hoodie/BMM68961.html?color=165</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_11</t>
+    <t>men_boohoohoodie_11</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm70477_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -191,7 +191,7 @@
     <t>https://ca.boohoo.com/oversized-boxy-borg-applique-hoodie/BMM70477.html?color=157</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_12</t>
+    <t>men_boohoohoodie_12</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74922_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -203,7 +203,7 @@
     <t>https://ca.boohoo.com/oversized-nirvana-band-license-hoodie/BMM74922.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_13</t>
+    <t>men_boohoohoodie_13</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68671_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -215,7 +215,7 @@
     <t>https://ca.boohoo.com/tall-overdyed-denim-boxy-fit-zip-through-hoodie/BMM68671.html?color=209</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_14</t>
+    <t>men_boohoohoodie_14</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm80175_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -227,7 +227,7 @@
     <t>https://ca.boohoo.com/oversized-heavyweight-overdye-bm--zip-through-hoodie/BMM80175.html?color=109</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_15</t>
+    <t>men_boohoohoodie_15</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm75699_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -242,7 +242,7 @@
     <t>https://ca.boohoo.com/plus-basic-over-the-head-hoodie-in-grey-marl/BMM75699.html?color=265</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_16</t>
+    <t>men_boohoohoodie_16</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74252_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -254,7 +254,7 @@
     <t>https://ca.boohoo.com/oversized-boxy-boucle-borg-hoodie/BMM74252.html?color=106</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_17</t>
+    <t>men_boohoohoodie_17</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm75961_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -269,7 +269,7 @@
     <t>https://ca.boohoo.com/oversized-worldwide-graphic-hoodie/BMM75961.html?color=161</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_18</t>
+    <t>men_boohoohoodie_18</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm58741_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -281,7 +281,7 @@
     <t>https://ca.boohoo.com/oversized-heavyweight-loopback-graphic-hoodie/BMM58741.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_19</t>
+    <t>men_boohoohoodie_19</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm67668_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -293,7 +293,7 @@
     <t>https://ca.boohoo.com/oversized-heavyweight-zip-through-hoodie/BMM67668.html</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_20</t>
+    <t>men_boohoohoodie_20</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm32936_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -305,7 +305,7 @@
     <t>https://ca.boohoo.com/man-active-training-dept-boxy-hoodie/BMM32936.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_21</t>
+    <t>men_boohoohoodie_21</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm76422_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -317,7 +317,7 @@
     <t>https://ca.boohoo.com/oversized-fall-out-boy-wash-hoodie/BMM76422.html?color=115</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_22</t>
+    <t>men_boohoohoodie_22</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm30931_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -332,7 +332,7 @@
     <t>https://ca.boohoo.com/oversized-washed-graphic-zip-through-hoodie/BMM30931.html?color=115</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_23</t>
+    <t>men_boohoohoodie_23</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm71338_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -344,7 +344,7 @@
     <t>https://ca.boohoo.com/oversized-paradise-hoodie/BMM71338.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_24</t>
+    <t>men_boohoohoodie_24</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm75048_dusty%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -356,7 +356,7 @@
     <t>https://ca.boohoo.com/man-boxy-over-the-head-basic-hoodie/BMM75048.html?color=679</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_25</t>
+    <t>men_boohoohoodie_25</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74829_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -368,7 +368,7 @@
     <t>https://ca.boohoo.com/basic-zip-through-hoodie/BMM74829.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_26</t>
+    <t>men_boohoohoodie_26</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm69680_pale%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -380,7 +380,7 @@
     <t>https://ca.boohoo.com/oversized-loopback-ribbed-applique-hoodie/BMM69680.html?color=423</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_27</t>
+    <t>men_boohoohoodie_27</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm59138_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -392,7 +392,7 @@
     <t>https://ca.boohoo.com/oversized-beastie-boys-license-hoodie/BMM59138.html</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_28</t>
+    <t>men_boohoohoodie_28</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm78496_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -404,7 +404,7 @@
     <t>https://ca.boohoo.com/oversized-boxy-homme-paint-splat-hoodie/BMM78496.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_29</t>
+    <t>men_boohoohoodie_29</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm76056_olive_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -419,7 +419,7 @@
     <t>https://ca.boohoo.com/plus-raglan-colour-block-hoodie-in-olive/BMM76056.html?color=151</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_30</t>
+    <t>men_boohoohoodie_30</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm65217_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -431,7 +431,7 @@
     <t>https://ca.boohoo.com/oversized-scenic-graphic-hoodie/BMM65217.html?color=131</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_31</t>
+    <t>men_boohoohoodie_31</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm75103_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -443,7 +443,7 @@
     <t>https://ca.boohoo.com/oversized-dog-graphic-hoodie-/BMM75103.html?color=265</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_32</t>
+    <t>men_boohoohoodie_32</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm71855_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -455,7 +455,7 @@
     <t>https://ca.boohoo.com/official-boxy-fit-zip-through-hoodie/BMM71855.html</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_33</t>
+    <t>men_boohoohoodie_33</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm70003_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -467,7 +467,7 @@
     <t>https://ca.boohoo.com/ofcl-psychadelic-graphic-hoodie/BMM70003.html?color=265</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_34</t>
+    <t>men_boohoohoodie_34</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm75643_sand_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -479,7 +479,7 @@
     <t>https://ca.boohoo.com/tall-paris-graphic-hoodie/BMM75643.html?color=161</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_35</t>
+    <t>men_boohoohoodie_35</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm22509_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -491,7 +491,7 @@
     <t>https://ca.boohoo.com/oversized-bleach-tie-dye-skull-graphic-hoodie/BMM22509.html?color=131</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_36</t>
+    <t>men_boohoohoodie_36</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm75757_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -503,7 +503,7 @@
     <t>https://ca.boohoo.com/tall-oversized-boxy-skull-line-drawing-hoodie/BMM75757.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_37</t>
+    <t>men_boohoohoodie_37</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm33524_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -515,7 +515,7 @@
     <t>https://ca.boohoo.com/oversized-rick-morty-license-hoodie/BMM33524.html?color=105</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_38</t>
+    <t>men_boohoohoodie_38</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68719_ice%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -524,7 +524,7 @@
     <t>https://ca.boohoo.com/plus-overdyed-denim-hoodie/BMM68719.html?color=803</t>
   </si>
   <si>
-    <t>men_boohoo_hoodie_39</t>
+    <t>men_boohoohoodie_39</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm70481_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
